--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ltb</t>
+  </si>
+  <si>
+    <t>Tnfrsf1a</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ltb</t>
-  </si>
-  <si>
-    <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.67973599999999</v>
+        <v>0.7189253333333333</v>
       </c>
       <c r="H2">
-        <v>89.03920799999999</v>
+        <v>2.156776</v>
       </c>
       <c r="I2">
-        <v>0.9444448799234891</v>
+        <v>0.375764717934637</v>
       </c>
       <c r="J2">
-        <v>0.9444448799234891</v>
+        <v>0.3757647179346369</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N2">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P2">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q2">
-        <v>1854.961794219739</v>
+        <v>34.0262009065769</v>
       </c>
       <c r="R2">
-        <v>16694.65614797765</v>
+        <v>306.235808159192</v>
       </c>
       <c r="S2">
-        <v>0.3447219739541352</v>
+        <v>0.1280762589315227</v>
       </c>
       <c r="T2">
-        <v>0.3447219739541352</v>
+        <v>0.1280762589315227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,14 +584,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
         <v>3</v>
       </c>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.67973599999999</v>
+        <v>0.7189253333333333</v>
       </c>
       <c r="H3">
-        <v>89.03920799999999</v>
+        <v>2.156776</v>
       </c>
       <c r="I3">
-        <v>0.9444448799234891</v>
+        <v>0.375764717934637</v>
       </c>
       <c r="J3">
-        <v>0.9444448799234891</v>
+        <v>0.3757647179346369</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N3">
         <v>131.153859</v>
       </c>
       <c r="O3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P3">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q3">
-        <v>1297.537303500408</v>
+        <v>31.429943933176</v>
       </c>
       <c r="R3">
-        <v>11677.83573150367</v>
+        <v>282.869495398584</v>
       </c>
       <c r="S3">
-        <v>0.2411314464457376</v>
+        <v>0.1183038226465835</v>
       </c>
       <c r="T3">
-        <v>0.2411314464457376</v>
+        <v>0.1183038226465835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.67973599999999</v>
+        <v>0.7189253333333333</v>
       </c>
       <c r="H4">
-        <v>89.03920799999999</v>
+        <v>2.156776</v>
       </c>
       <c r="I4">
-        <v>0.9444448799234891</v>
+        <v>0.375764717934637</v>
       </c>
       <c r="J4">
-        <v>0.9444448799234891</v>
+        <v>0.3757647179346369</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N4">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P4">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q4">
-        <v>567.9670396371359</v>
+        <v>15.16310534991644</v>
       </c>
       <c r="R4">
-        <v>5111.703356734223</v>
+        <v>136.467948149248</v>
       </c>
       <c r="S4">
-        <v>0.1055497313501039</v>
+        <v>0.05707465879996265</v>
       </c>
       <c r="T4">
-        <v>0.1055497313501039</v>
+        <v>0.05707465879996265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.67973599999999</v>
+        <v>0.7189253333333333</v>
       </c>
       <c r="H5">
-        <v>89.03920799999999</v>
+        <v>2.156776</v>
       </c>
       <c r="I5">
-        <v>0.9444448799234891</v>
+        <v>0.375764717934637</v>
       </c>
       <c r="J5">
-        <v>0.9444448799234891</v>
+        <v>0.3757647179346369</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N5">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P5">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q5">
-        <v>1361.626973532163</v>
+        <v>19.21069403819289</v>
       </c>
       <c r="R5">
-        <v>12254.64276178946</v>
+        <v>172.896246343736</v>
       </c>
       <c r="S5">
-        <v>0.2530417281735125</v>
+        <v>0.07230997755656809</v>
       </c>
       <c r="T5">
-        <v>0.2530417281735125</v>
+        <v>0.07230997755656809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.013544</v>
+        <v>1.194307333333333</v>
       </c>
       <c r="H6">
-        <v>0.040632</v>
+        <v>3.582922</v>
       </c>
       <c r="I6">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="J6">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.49926866666667</v>
+        <v>47.32925566666668</v>
       </c>
       <c r="N6">
-        <v>187.497806</v>
+        <v>141.987767</v>
       </c>
       <c r="O6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="P6">
-        <v>0.3649995688282641</v>
+        <v>0.3408416299313156</v>
       </c>
       <c r="Q6">
-        <v>0.8464900948213334</v>
+        <v>56.52567712390824</v>
       </c>
       <c r="R6">
-        <v>7.618410853392001</v>
+        <v>508.7310941151741</v>
       </c>
       <c r="S6">
-        <v>0.0001573098364228984</v>
+        <v>0.2127653709997929</v>
       </c>
       <c r="T6">
-        <v>0.0001573098364228984</v>
+        <v>0.2127653709997929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.013544</v>
+        <v>1.194307333333333</v>
       </c>
       <c r="H7">
-        <v>0.040632</v>
+        <v>3.582922</v>
       </c>
       <c r="I7">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="J7">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.71795299999999</v>
+        <v>43.717953</v>
       </c>
       <c r="N7">
         <v>131.153859</v>
       </c>
       <c r="O7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399153</v>
       </c>
       <c r="P7">
-        <v>0.2553155314530077</v>
+        <v>0.3148348341399154</v>
       </c>
       <c r="Q7">
-        <v>0.5921159554319999</v>
+        <v>52.212671866222</v>
       </c>
       <c r="R7">
-        <v>5.329043598887999</v>
+        <v>469.914046795998</v>
       </c>
       <c r="S7">
-        <v>0.0001100375121483921</v>
+        <v>0.1965310114933318</v>
       </c>
       <c r="T7">
-        <v>0.0001100375121483921</v>
+        <v>0.1965310114933319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.013544</v>
+        <v>1.194307333333333</v>
       </c>
       <c r="H8">
-        <v>0.040632</v>
+        <v>3.582922</v>
       </c>
       <c r="I8">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="J8">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.136526</v>
+        <v>21.09134933333333</v>
       </c>
       <c r="N8">
-        <v>57.409578</v>
+        <v>63.274048</v>
       </c>
       <c r="O8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="P8">
-        <v>0.1117584875452494</v>
+        <v>0.1518893501062827</v>
       </c>
       <c r="Q8">
-        <v>0.259185108144</v>
+        <v>25.18955317869511</v>
       </c>
       <c r="R8">
-        <v>2.332665973296</v>
+        <v>226.705978608256</v>
       </c>
       <c r="S8">
-        <v>4.816638400711539E-05</v>
+        <v>0.09481469130632007</v>
       </c>
       <c r="T8">
-        <v>4.816638400711538E-05</v>
+        <v>0.09481469130632009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.013544</v>
+        <v>1.194307333333333</v>
       </c>
       <c r="H9">
-        <v>0.040632</v>
+        <v>3.582922</v>
       </c>
       <c r="I9">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="J9">
-        <v>0.0004309863623343462</v>
+        <v>0.6242352820653631</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.87732766666667</v>
+        <v>26.72140366666666</v>
       </c>
       <c r="N9">
-        <v>137.631983</v>
+        <v>80.16421099999999</v>
       </c>
       <c r="O9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224863</v>
       </c>
       <c r="P9">
-        <v>0.2679264121734788</v>
+        <v>0.1924341858224864</v>
       </c>
       <c r="Q9">
-        <v>0.6213625259173334</v>
+        <v>31.91356835606022</v>
       </c>
       <c r="R9">
-        <v>5.592262733256001</v>
+        <v>287.222115204542</v>
       </c>
       <c r="S9">
-        <v>0.0001154726297559403</v>
+        <v>0.1201242082659182</v>
       </c>
       <c r="T9">
-        <v>0.0001154726297559403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.732308333333333</v>
-      </c>
-      <c r="H10">
-        <v>5.196925</v>
-      </c>
-      <c r="I10">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="J10">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>62.49926866666667</v>
-      </c>
-      <c r="N10">
-        <v>187.497806</v>
-      </c>
-      <c r="O10">
-        <v>0.3649995688282641</v>
-      </c>
-      <c r="P10">
-        <v>0.3649995688282641</v>
-      </c>
-      <c r="Q10">
-        <v>108.2680039385056</v>
-      </c>
-      <c r="R10">
-        <v>974.4120354465501</v>
-      </c>
-      <c r="S10">
-        <v>0.02012028503770602</v>
-      </c>
-      <c r="T10">
-        <v>0.02012028503770602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.732308333333333</v>
-      </c>
-      <c r="H11">
-        <v>5.196925</v>
-      </c>
-      <c r="I11">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="J11">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>43.71795299999999</v>
-      </c>
-      <c r="N11">
-        <v>131.153859</v>
-      </c>
-      <c r="O11">
-        <v>0.2553155314530077</v>
-      </c>
-      <c r="P11">
-        <v>0.2553155314530077</v>
-      </c>
-      <c r="Q11">
-        <v>75.73297429817499</v>
-      </c>
-      <c r="R11">
-        <v>681.596768683575</v>
-      </c>
-      <c r="S11">
-        <v>0.01407404749512165</v>
-      </c>
-      <c r="T11">
-        <v>0.01407404749512165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.732308333333333</v>
-      </c>
-      <c r="H12">
-        <v>5.196925</v>
-      </c>
-      <c r="I12">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="J12">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>19.136526</v>
-      </c>
-      <c r="N12">
-        <v>57.409578</v>
-      </c>
-      <c r="O12">
-        <v>0.1117584875452494</v>
-      </c>
-      <c r="P12">
-        <v>0.1117584875452494</v>
-      </c>
-      <c r="Q12">
-        <v>33.15036346085</v>
-      </c>
-      <c r="R12">
-        <v>298.35327114765</v>
-      </c>
-      <c r="S12">
-        <v>0.006160589811138466</v>
-      </c>
-      <c r="T12">
-        <v>0.006160589811138466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.732308333333333</v>
-      </c>
-      <c r="H13">
-        <v>5.196925</v>
-      </c>
-      <c r="I13">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="J13">
-        <v>0.05512413371417656</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>45.87732766666667</v>
-      </c>
-      <c r="N13">
-        <v>137.631983</v>
-      </c>
-      <c r="O13">
-        <v>0.2679264121734788</v>
-      </c>
-      <c r="P13">
-        <v>0.2679264121734788</v>
-      </c>
-      <c r="Q13">
-        <v>79.47367702803056</v>
-      </c>
-      <c r="R13">
-        <v>715.2630932522751</v>
-      </c>
-      <c r="S13">
-        <v>0.01476921137021043</v>
-      </c>
-      <c r="T13">
-        <v>0.01476921137021043</v>
+        <v>0.1201242082659183</v>
       </c>
     </row>
   </sheetData>
